--- a/documents/ProjectBacklog.xlsx
+++ b/documents/ProjectBacklog.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Establish auto-clock-out</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Reset password form</t>
   </si>
   <si>
@@ -95,6 +98,36 @@
   </si>
   <si>
     <t>Establish auto-clock-in</t>
+  </si>
+  <si>
+    <t>QR Code Generator/Manager</t>
+  </si>
+  <si>
+    <t>Create restricted manager roles (just clock-in/out and just QR code)</t>
+  </si>
+  <si>
+    <t>Resubmit denied application</t>
+  </si>
+  <si>
+    <t>Manually create records</t>
+  </si>
+  <si>
+    <t>Manager search clock records by name/date/ethnicity/sex</t>
+  </si>
+  <si>
+    <t>Manager search applications by name</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Test cases</t>
+  </si>
+  <si>
+    <t>Build and submit to app store</t>
+  </si>
+  <si>
+    <t>3 / In progress</t>
   </si>
 </sst>
 </file>
@@ -156,8 +189,8 @@
     <col customWidth="1" min="1" max="1" width="3.14"/>
     <col customWidth="1" min="2" max="2" width="67.14"/>
     <col customWidth="1" min="3" max="3" width="16.14"/>
-    <col customWidth="1" min="4" max="4" width="9.43"/>
-    <col customWidth="1" min="5" max="5" width="26.29"/>
+    <col customWidth="1" min="4" max="4" width="7.0"/>
+    <col customWidth="1" min="5" max="5" width="19.29"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -448,6 +481,9 @@
       <c r="D17" s="2">
         <v>3.0</v>
       </c>
+      <c r="E17" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18">
@@ -455,7 +491,7 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" s="2">
         <v>4.0</v>
@@ -473,13 +509,16 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" s="2">
         <v>10.0</v>
       </c>
       <c r="D19" s="2">
         <v>3.0</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="20">
@@ -487,7 +526,7 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" s="2">
         <v>20.0</v>
@@ -504,7 +543,7 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" s="2">
         <v>10.0</v>
@@ -521,7 +560,7 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" s="2">
         <v>8.0</v>
@@ -538,7 +577,7 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23" s="2">
         <v>10.0</v>
@@ -556,7 +595,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24" s="2">
         <v>6.0</v>
@@ -570,14 +609,158 @@
       <c r="F24" s="1"/>
     </row>
     <row r="25">
+      <c r="A25" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3.0</v>
+      </c>
       <c r="F25" s="1"/>
     </row>
+    <row r="26">
+      <c r="A26" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="D26" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="D27" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D28" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="D29" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="D30" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
     <row r="31">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+      <c r="A31" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D31" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="1"/>
+      <c r="A32" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="D32" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="D33" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
